--- a/fuentes/contenidos/grado11/guion11/SolicitudGrafica_CN_11_11_CO_REC220.xlsx
+++ b/fuentes/contenidos/grado11/guion11/SolicitudGrafica_CN_11_11_CO_REC220.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Desktop\REC11_11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado11\guion11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -2115,80 +2115,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>104940</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>223157</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3482492</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>3881793</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagen 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:srcRect l="23835" t="8054" r="34592" b="13248"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13820940" y="22021800"/>
-          <a:ext cx="3377552" cy="3658636"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>139292</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>45191</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Imagen 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:srcRect l="47987" t="26541" r="8064" b="12016"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17226643" y="21798643"/>
-          <a:ext cx="5718220" cy="4494727"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>389705</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>2313214</xdr:rowOff>
@@ -2207,7 +2133,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:srcRect l="53115" t="28465" r="8282" b="35620"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2244,7 +2170,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:srcRect l="48285" t="26365" r="9548" b="16945"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2256,6 +2182,49 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3009900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3086100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:srcRect l="28173" t="22640" r="36864" b="12457"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14058900" y="21945600"/>
+          <a:ext cx="2667000" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2978,9 +2947,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
